--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CB33B-669E-47A2-95A0-4D1E55E9CD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="573">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1746,7 +1745,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2166,12 +2165,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4859,21 +4856,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1740,25 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1796,7 +1809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1856,11 +1869,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1884,6 +1906,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2166,16 +2191,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,8 +2215,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2202,8 +2232,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2227,11 +2260,8 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2245,7 +2275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2259,7 +2289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2273,7 +2303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2301,7 +2331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2314,8 +2344,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2329,7 +2362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2343,7 +2376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2357,7 +2390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2371,7 +2404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2384,8 +2417,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4865,12 +4901,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375"/>
+    <col min="3" max="3" customWidth="true" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +4917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4892,7 +4928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1752,6 +1752,9 @@
   </si>
   <si>
     <t>54000</t>
+  </si>
+  <si>
+    <t>cezayir</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2197,7 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
